--- a/benchmarks/simulations-90.0-days.xlsx
+++ b/benchmarks/simulations-90.0-days.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>heuristic</t>
   </si>
@@ -410,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -456,7 +456,7 @@
         <v>0.5</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="E2">
         <v>3000</v>
@@ -468,13 +468,13 @@
         <v>12</v>
       </c>
       <c r="H2">
-        <v>34104899622.3939</v>
+        <v>35744672283.73973</v>
       </c>
       <c r="I2">
-        <v>437.4468777185149</v>
+        <v>14629.32267176422</v>
       </c>
       <c r="J2">
-        <v>34087221990.42092</v>
+        <v>20269054011.81214</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -488,7 +488,7 @@
         <v>0.5</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="E3">
         <v>3000</v>
@@ -500,13 +500,13 @@
         <v>12</v>
       </c>
       <c r="H3">
-        <v>24804034127.99388</v>
+        <v>28528024346.48086</v>
       </c>
       <c r="I3">
-        <v>434.2538748616307</v>
+        <v>12928.77016471976</v>
       </c>
       <c r="J3">
-        <v>24786477591.96224</v>
+        <v>14837403034.64404</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -520,7 +520,7 @@
         <v>0.5</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="E4">
         <v>3000</v>
@@ -532,301 +532,13 @@
         <v>12</v>
       </c>
       <c r="H4">
-        <v>93767847574.49249</v>
+        <v>52068612144.89888</v>
       </c>
       <c r="I4">
-        <v>134673.9302783691</v>
+        <v>95292.65759120186</v>
       </c>
       <c r="J4">
-        <v>83918976851.4379</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>0.5</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>3000</v>
-      </c>
-      <c r="F5">
-        <v>30000</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5">
-        <v>34107481069.58567</v>
-      </c>
-      <c r="I5">
-        <v>421.6770993320237</v>
-      </c>
-      <c r="J5">
-        <v>34090428049.43907</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>0.5</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>3000</v>
-      </c>
-      <c r="F6">
-        <v>30000</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6">
-        <v>24813992400.30548</v>
-      </c>
-      <c r="I6">
-        <v>418.7148758277947</v>
-      </c>
-      <c r="J6">
-        <v>24797051787.61115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7">
-        <v>0.5</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>3000</v>
-      </c>
-      <c r="F7">
-        <v>30000</v>
-      </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7">
-        <v>92120029750.77739</v>
-      </c>
-      <c r="I7">
-        <v>134237.7442265161</v>
-      </c>
-      <c r="J7">
-        <v>82287447025.09177</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8">
-        <v>0.5</v>
-      </c>
-      <c r="D8">
-        <v>1000000</v>
-      </c>
-      <c r="E8">
-        <v>3000</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8">
-        <v>34104899622.3939</v>
-      </c>
-      <c r="I8">
-        <v>437.4468777185149</v>
-      </c>
-      <c r="J8">
-        <v>33649775112.7024</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9">
-        <v>0.5</v>
-      </c>
-      <c r="D9">
-        <v>1000000</v>
-      </c>
-      <c r="E9">
-        <v>3000</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9">
-        <v>24804034127.99388</v>
-      </c>
-      <c r="I9">
-        <v>434.2538748616307</v>
-      </c>
-      <c r="J9">
-        <v>24352223717.10059</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10">
-        <v>0.5</v>
-      </c>
-      <c r="D10">
-        <v>1000000</v>
-      </c>
-      <c r="E10">
-        <v>3000</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10">
-        <v>93767847574.49249</v>
-      </c>
-      <c r="I10">
-        <v>134673.9302783691</v>
-      </c>
-      <c r="J10">
-        <v>-50754953426.9312</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11">
-        <v>0.5</v>
-      </c>
-      <c r="D11">
-        <v>1000000</v>
-      </c>
-      <c r="E11">
-        <v>3000</v>
-      </c>
-      <c r="F11">
-        <v>30000</v>
-      </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11">
-        <v>34107481069.58567</v>
-      </c>
-      <c r="I11">
-        <v>421.6770993320237</v>
-      </c>
-      <c r="J11">
-        <v>33668750950.10704</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12">
-        <v>0.5</v>
-      </c>
-      <c r="D12">
-        <v>1000000</v>
-      </c>
-      <c r="E12">
-        <v>3000</v>
-      </c>
-      <c r="F12">
-        <v>30000</v>
-      </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12">
-        <v>24813992400.30548</v>
-      </c>
-      <c r="I12">
-        <v>418.7148758277947</v>
-      </c>
-      <c r="J12">
-        <v>24378336911.78333</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13">
-        <v>0.5</v>
-      </c>
-      <c r="D13">
-        <v>1000000</v>
-      </c>
-      <c r="E13">
-        <v>3000</v>
-      </c>
-      <c r="F13">
-        <v>30000</v>
-      </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13">
-        <v>92120029750.77739</v>
-      </c>
-      <c r="I13">
-        <v>134237.7442265161</v>
-      </c>
-      <c r="J13">
-        <v>-51950297201.4244</v>
+        <v>-50767863001.61307</v>
       </c>
     </row>
   </sheetData>

--- a/benchmarks/simulations-90.0-days.xlsx
+++ b/benchmarks/simulations-90.0-days.xlsx
@@ -468,13 +468,13 @@
         <v>12</v>
       </c>
       <c r="H2">
-        <v>35744672283.73973</v>
+        <v>35749531208.88911</v>
       </c>
       <c r="I2">
-        <v>14629.32267176422</v>
+        <v>7163.079469575139</v>
       </c>
       <c r="J2">
-        <v>20269054011.81214</v>
+        <v>28327677049.3141</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -500,13 +500,13 @@
         <v>12</v>
       </c>
       <c r="H3">
-        <v>28528024346.48086</v>
+        <v>28516911372.9932</v>
       </c>
       <c r="I3">
-        <v>12928.77016471976</v>
+        <v>5738.231570230878</v>
       </c>
       <c r="J3">
-        <v>14837403034.64404</v>
+        <v>22568080342.60737</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -532,13 +532,13 @@
         <v>12</v>
       </c>
       <c r="H4">
-        <v>52068612144.89888</v>
+        <v>52093017900.43949</v>
       </c>
       <c r="I4">
-        <v>95292.65759120186</v>
+        <v>94575.50048062734</v>
       </c>
       <c r="J4">
-        <v>-50767863001.61307</v>
+        <v>-50013210938.35482</v>
       </c>
     </row>
   </sheetData>

--- a/benchmarks/simulations-90.0-days.xlsx
+++ b/benchmarks/simulations-90.0-days.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>heuristic</t>
   </si>
@@ -410,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -456,7 +456,7 @@
         <v>0.5</v>
       </c>
       <c r="D2">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>3000</v>
@@ -468,13 +468,13 @@
         <v>12</v>
       </c>
       <c r="H2">
-        <v>35749531208.88911</v>
+        <v>39077787182.64979</v>
       </c>
       <c r="I2">
-        <v>7163.079469575139</v>
+        <v>14629.32267176422</v>
       </c>
       <c r="J2">
-        <v>28327677049.3141</v>
+        <v>38231491582.4864</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -488,7 +488,7 @@
         <v>0.5</v>
       </c>
       <c r="D3">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>3000</v>
@@ -500,13 +500,13 @@
         <v>12</v>
       </c>
       <c r="H3">
-        <v>28516911372.9932</v>
+        <v>31436040299.9332</v>
       </c>
       <c r="I3">
-        <v>5738.231570230878</v>
+        <v>12928.77016471976</v>
       </c>
       <c r="J3">
-        <v>22568080342.60737</v>
+        <v>30674189152.81614</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -520,7 +520,7 @@
         <v>0.5</v>
       </c>
       <c r="D4">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>3000</v>
@@ -532,13 +532,109 @@
         <v>12</v>
       </c>
       <c r="H4">
-        <v>52093017900.43949</v>
+        <v>60865269290.37937</v>
       </c>
       <c r="I4">
-        <v>94575.50048062734</v>
+        <v>95292.65759120186</v>
       </c>
       <c r="J4">
-        <v>-50013210938.35482</v>
+        <v>53321451735.06924</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>0.5</v>
+      </c>
+      <c r="D5">
+        <v>1000000</v>
+      </c>
+      <c r="E5">
+        <v>3000</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5">
+        <v>39077787182.64979</v>
+      </c>
+      <c r="I5">
+        <v>14629.32267176422</v>
+      </c>
+      <c r="J5">
+        <v>23602168910.72218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>0.5</v>
+      </c>
+      <c r="D6">
+        <v>1000000</v>
+      </c>
+      <c r="E6">
+        <v>3000</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6">
+        <v>31436040299.9332</v>
+      </c>
+      <c r="I6">
+        <v>12928.77016471976</v>
+      </c>
+      <c r="J6">
+        <v>17745418988.09637</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>0.5</v>
+      </c>
+      <c r="D7">
+        <v>1000000</v>
+      </c>
+      <c r="E7">
+        <v>3000</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7">
+        <v>60865269290.37937</v>
+      </c>
+      <c r="I7">
+        <v>95292.65759120186</v>
+      </c>
+      <c r="J7">
+        <v>-41971205856.13255</v>
       </c>
     </row>
   </sheetData>

--- a/benchmarks/simulations-90.0-days.xlsx
+++ b/benchmarks/simulations-90.0-days.xlsx
@@ -468,13 +468,13 @@
         <v>12</v>
       </c>
       <c r="H2">
-        <v>39077787182.64979</v>
+        <v>35746630268.87081</v>
       </c>
       <c r="I2">
-        <v>14629.32267176422</v>
+        <v>10735.6693187202</v>
       </c>
       <c r="J2">
-        <v>38231491582.4864</v>
+        <v>32204521182.33292</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -500,13 +500,13 @@
         <v>12</v>
       </c>
       <c r="H3">
-        <v>31436040299.9332</v>
+        <v>28549297387.41831</v>
       </c>
       <c r="I3">
-        <v>12928.77016471976</v>
+        <v>9754.205102515734</v>
       </c>
       <c r="J3">
-        <v>30674189152.81614</v>
+        <v>25331010990.93549</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -532,13 +532,13 @@
         <v>12</v>
       </c>
       <c r="H4">
-        <v>60865269290.37937</v>
+        <v>51911235557.14983</v>
       </c>
       <c r="I4">
-        <v>95292.65759120186</v>
+        <v>72870.41979858115</v>
       </c>
       <c r="J4">
-        <v>53321451735.06924</v>
+        <v>27868489041.26198</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -564,13 +564,13 @@
         <v>12</v>
       </c>
       <c r="H5">
-        <v>39077787182.64979</v>
+        <v>35746630268.87081</v>
       </c>
       <c r="I5">
-        <v>14629.32267176422</v>
+        <v>10735.6693187202</v>
       </c>
       <c r="J5">
-        <v>23602168910.72218</v>
+        <v>21468851863.61272</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -596,13 +596,13 @@
         <v>12</v>
       </c>
       <c r="H6">
-        <v>31436040299.9332</v>
+        <v>28549297387.41831</v>
       </c>
       <c r="I6">
-        <v>12928.77016471976</v>
+        <v>9754.205102515734</v>
       </c>
       <c r="J6">
-        <v>17745418988.09637</v>
+        <v>15576805888.41975</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -628,13 +628,13 @@
         <v>12</v>
       </c>
       <c r="H7">
-        <v>60865269290.37937</v>
+        <v>51911235557.14983</v>
       </c>
       <c r="I7">
-        <v>95292.65759120186</v>
+        <v>72870.41979858115</v>
       </c>
       <c r="J7">
-        <v>-41971205856.13255</v>
+        <v>-45001930757.31915</v>
       </c>
     </row>
   </sheetData>

--- a/benchmarks/simulations-90.0-days.xlsx
+++ b/benchmarks/simulations-90.0-days.xlsx
@@ -468,13 +468,13 @@
         <v>12</v>
       </c>
       <c r="H2">
-        <v>35746630268.87081</v>
+        <v>33922389065.67492</v>
       </c>
       <c r="I2">
         <v>10735.6693187202</v>
       </c>
       <c r="J2">
-        <v>32204521182.33292</v>
+        <v>30380279979.13705</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -500,13 +500,13 @@
         <v>12</v>
       </c>
       <c r="H3">
-        <v>28549297387.41831</v>
+        <v>26957238971.67876</v>
       </c>
       <c r="I3">
         <v>9754.205102515734</v>
       </c>
       <c r="J3">
-        <v>25331010990.93549</v>
+        <v>23738952575.19592</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -532,13 +532,13 @@
         <v>12</v>
       </c>
       <c r="H4">
-        <v>51911235557.14983</v>
+        <v>47123039801.55015</v>
       </c>
       <c r="I4">
         <v>72870.41979858115</v>
       </c>
       <c r="J4">
-        <v>27868489041.26198</v>
+        <v>23080293285.66229</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -564,13 +564,13 @@
         <v>12</v>
       </c>
       <c r="H5">
-        <v>35746630268.87081</v>
+        <v>33922389065.67492</v>
       </c>
       <c r="I5">
         <v>10735.6693187202</v>
       </c>
       <c r="J5">
-        <v>21468851863.61272</v>
+        <v>19644610660.41685</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -596,13 +596,13 @@
         <v>12</v>
       </c>
       <c r="H6">
-        <v>28549297387.41831</v>
+        <v>26957238971.67876</v>
       </c>
       <c r="I6">
         <v>9754.205102515734</v>
       </c>
       <c r="J6">
-        <v>15576805888.41975</v>
+        <v>13984747472.6802</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -628,13 +628,13 @@
         <v>12</v>
       </c>
       <c r="H7">
-        <v>51911235557.14983</v>
+        <v>47123039801.55015</v>
       </c>
       <c r="I7">
         <v>72870.41979858115</v>
       </c>
       <c r="J7">
-        <v>-45001930757.31915</v>
+        <v>-49790126512.91886</v>
       </c>
     </row>
   </sheetData>

--- a/benchmarks/simulations-90.0-days.xlsx
+++ b/benchmarks/simulations-90.0-days.xlsx
@@ -1,84 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
-  <si>
-    <t>heuristic</t>
-  </si>
-  <si>
-    <t>delta_schooling</t>
-  </si>
-  <si>
-    <t>xi</t>
-  </si>
-  <si>
-    <t>icus</t>
-  </si>
-  <si>
-    <t>tests</t>
-  </si>
-  <si>
-    <t>testing</t>
-  </si>
-  <si>
-    <t>economics_value</t>
-  </si>
-  <si>
-    <t>deaths</t>
-  </si>
-  <si>
-    <t>reward</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>full-lockdown</t>
-  </si>
-  <si>
-    <t>full-open</t>
-  </si>
-  <si>
-    <t>homogeneous</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -93,35 +46,94 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -409,235 +421,283 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>deaths</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>delta_schooling</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>economics_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>heuristic</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>icus</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>testing</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>tests</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>xi</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>10735.6693187202</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>33922389065.67492</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G2" t="n">
+        <v>30380279979.13705</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>homogeneous</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="n">
+        <v>9754.205102515734</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>26957238971.67876</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>full-lockdown</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G3" t="n">
+        <v>23738952575.19592</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>homogeneous</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="n">
+        <v>72870.41979858115</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>47123039801.55015</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>full-open</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G4" t="n">
+        <v>23080293285.66229</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>homogeneous</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B5" t="n">
+        <v>10735.6693187202</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>33922389065.67492</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G5" t="n">
+        <v>19644610660.41685</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>homogeneous</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B6" t="n">
+        <v>9754.205102515734</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>26957238971.67876</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>full-lockdown</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G6" t="n">
+        <v>13984747472.6802</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>homogeneous</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2">
+      <c r="B7" t="n">
+        <v>72870.41979858115</v>
+      </c>
+      <c r="C7" t="n">
         <v>0.5</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
+      <c r="D7" t="n">
+        <v>47123039801.55015</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>full-open</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
         <v>3000</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2">
-        <v>33922389065.67492</v>
-      </c>
-      <c r="I2">
-        <v>10735.6693187202</v>
-      </c>
-      <c r="J2">
-        <v>30380279979.13705</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>0.5</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>3000</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3">
-        <v>26957238971.67876</v>
-      </c>
-      <c r="I3">
-        <v>9754.205102515734</v>
-      </c>
-      <c r="J3">
-        <v>23738952575.19592</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4">
-        <v>0.5</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>3000</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4">
-        <v>47123039801.55015</v>
-      </c>
-      <c r="I4">
-        <v>72870.41979858115</v>
-      </c>
-      <c r="J4">
-        <v>23080293285.66229</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>0.5</v>
-      </c>
-      <c r="D5">
+      <c r="G7" t="n">
+        <v>-49790126512.91886</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>homogeneous</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
         <v>1000000</v>
-      </c>
-      <c r="E5">
-        <v>3000</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5">
-        <v>33922389065.67492</v>
-      </c>
-      <c r="I5">
-        <v>10735.6693187202</v>
-      </c>
-      <c r="J5">
-        <v>19644610660.41685</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>0.5</v>
-      </c>
-      <c r="D6">
-        <v>1000000</v>
-      </c>
-      <c r="E6">
-        <v>3000</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6">
-        <v>26957238971.67876</v>
-      </c>
-      <c r="I6">
-        <v>9754.205102515734</v>
-      </c>
-      <c r="J6">
-        <v>13984747472.6802</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7">
-        <v>0.5</v>
-      </c>
-      <c r="D7">
-        <v>1000000</v>
-      </c>
-      <c r="E7">
-        <v>3000</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7">
-        <v>47123039801.55015</v>
-      </c>
-      <c r="I7">
-        <v>72870.41979858115</v>
-      </c>
-      <c r="J7">
-        <v>-49790126512.91886</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/benchmarks/simulations-90.0-days.xlsx
+++ b/benchmarks/simulations-90.0-days.xlsx
@@ -468,13 +468,13 @@
         <v>12</v>
       </c>
       <c r="H2">
-        <v>33922389065.67492</v>
+        <v>35746630268.87081</v>
       </c>
       <c r="I2">
-        <v>10735.6693187202</v>
+        <v>10735.66931872022</v>
       </c>
       <c r="J2">
-        <v>30380279979.13705</v>
+        <v>32204521182.33292</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -500,13 +500,13 @@
         <v>12</v>
       </c>
       <c r="H3">
-        <v>26957238971.67876</v>
+        <v>28547548688.43454</v>
       </c>
       <c r="I3">
-        <v>9754.205102515734</v>
+        <v>7724.427374642704</v>
       </c>
       <c r="J3">
-        <v>23738952575.19592</v>
+        <v>25998963818.71302</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -532,13 +532,13 @@
         <v>12</v>
       </c>
       <c r="H4">
-        <v>47123039801.55015</v>
+        <v>51928481912.97824</v>
       </c>
       <c r="I4">
-        <v>72870.41979858115</v>
+        <v>71558.45745634065</v>
       </c>
       <c r="J4">
-        <v>23080293285.66229</v>
+        <v>28318602095.54038</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -564,13 +564,13 @@
         <v>12</v>
       </c>
       <c r="H5">
-        <v>33922389065.67492</v>
+        <v>35750794982.00849</v>
       </c>
       <c r="I5">
-        <v>10735.6693187202</v>
+        <v>8541.732513774983</v>
       </c>
       <c r="J5">
-        <v>19644610660.41685</v>
+        <v>24390817284.48329</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -596,13 +596,13 @@
         <v>12</v>
       </c>
       <c r="H6">
-        <v>26957238971.67876</v>
+        <v>28547548688.43454</v>
       </c>
       <c r="I6">
-        <v>9754.205102515734</v>
+        <v>7724.427374642704</v>
       </c>
       <c r="J6">
-        <v>13984747472.6802</v>
+        <v>18274536444.0703</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -628,13 +628,13 @@
         <v>12</v>
       </c>
       <c r="H7">
-        <v>47123039801.55015</v>
+        <v>51928481912.97824</v>
       </c>
       <c r="I7">
-        <v>72870.41979858115</v>
+        <v>71558.45745634065</v>
       </c>
       <c r="J7">
-        <v>-49790126512.91886</v>
+        <v>-43239855360.80026</v>
       </c>
     </row>
   </sheetData>
